--- a/美术文档.xlsx
+++ b/美术文档.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bear\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Traffic-sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBBC64-BC78-4202-9DB3-357A5A287799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8C72F-C182-4501-86AB-0281D90F5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>直路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最下方有道路图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左上方设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +290,30 @@
   </si>
   <si>
     <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方有道路图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.网赚功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现页面和大转盘和老虎机（新的翻倍卡之类等公司数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.游戏胜利失败页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.通用领奖页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.美元宝箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -587,8 +607,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2920,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N298"/>
+  <dimension ref="A2:N313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N215" sqref="N215"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3063,7 +3082,7 @@
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="25"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
@@ -3131,32 +3150,32 @@
     </row>
     <row r="183" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="230" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3358,7 +3377,7 @@
       <c r="M257" s="7"/>
     </row>
     <row r="262" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="11" t="s">
+      <c r="B262" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F262" s="1" t="s">
@@ -3369,7 +3388,7 @@
       </c>
     </row>
     <row r="263" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="12"/>
+      <c r="B263" s="11"/>
       <c r="F263" s="3"/>
       <c r="G263" s="4"/>
       <c r="K263" s="5"/>
@@ -3377,7 +3396,7 @@
       <c r="M263" s="7"/>
     </row>
     <row r="264" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="12"/>
+      <c r="B264" s="11"/>
       <c r="F264" s="3"/>
       <c r="G264" s="4"/>
       <c r="K264" s="5"/>
@@ -3385,7 +3404,7 @@
       <c r="M264" s="7"/>
     </row>
     <row r="265" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="12"/>
+      <c r="B265" s="11"/>
       <c r="F265" s="3"/>
       <c r="G265" s="4"/>
       <c r="K265" s="5"/>
@@ -3393,7 +3412,7 @@
       <c r="M265" s="7"/>
     </row>
     <row r="266" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B266" s="12"/>
+      <c r="B266" s="11"/>
       <c r="F266" s="3"/>
       <c r="G266" s="4"/>
       <c r="K266" s="5"/>
@@ -3401,26 +3420,25 @@
       <c r="M266" s="7"/>
     </row>
     <row r="267" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="13"/>
+      <c r="A267" s="12"/>
       <c r="B267" s="10"/>
-      <c r="C267" s="13"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="13"/>
+      <c r="C267" s="12"/>
+      <c r="E267" s="12"/>
       <c r="F267" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G267" s="10"/>
-      <c r="H267" s="13"/>
-      <c r="J267" s="13"/>
+      <c r="H267" s="12"/>
+      <c r="J267" s="12"/>
       <c r="K267" s="10"/>
       <c r="L267" s="10"/>
       <c r="M267" s="10"/>
-      <c r="N267" s="13" t="s">
+      <c r="N267" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="12"/>
+      <c r="B268" s="11"/>
       <c r="F268" s="3"/>
       <c r="G268" s="4"/>
       <c r="K268" s="5"/>
@@ -3428,7 +3446,7 @@
       <c r="M268" s="7"/>
     </row>
     <row r="269" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="12"/>
+      <c r="B269" s="11"/>
       <c r="F269" s="3"/>
       <c r="G269" s="4"/>
       <c r="K269" s="5"/>
@@ -3436,7 +3454,7 @@
       <c r="M269" s="7"/>
     </row>
     <row r="270" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="12"/>
+      <c r="B270" s="11"/>
       <c r="F270" s="3"/>
       <c r="G270" s="4"/>
       <c r="K270" s="5"/>
@@ -3444,7 +3462,7 @@
       <c r="M270" s="7"/>
     </row>
     <row r="271" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="12"/>
+      <c r="B271" s="11"/>
       <c r="F271" s="3"/>
       <c r="G271" s="4"/>
       <c r="K271" s="5"/>
@@ -3452,19 +3470,9 @@
       <c r="M271" s="7"/>
     </row>
     <row r="272" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="11" t="s">
+      <c r="B272" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C272" s="11"/>
-    </row>
-    <row r="273" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11"/>
-    </row>
-    <row r="274" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
     </row>
     <row r="275" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1" t="s">
@@ -3487,42 +3495,42 @@
       <c r="H277" s="7"/>
     </row>
     <row r="278" spans="1:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="14"/>
+      <c r="A278" s="13"/>
       <c r="B278" s="3"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="15"/>
-      <c r="F278" s="16"/>
+      <c r="D278" s="14"/>
+      <c r="F278" s="15"/>
       <c r="G278" s="5"/>
       <c r="H278" s="7"/>
-      <c r="I278" s="17"/>
+      <c r="I278" s="16"/>
     </row>
     <row r="279" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="18"/>
+      <c r="A279" s="17"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
-      <c r="D279" s="18"/>
-      <c r="F279" s="19"/>
+      <c r="D279" s="17"/>
+      <c r="F279" s="18"/>
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
-      <c r="I279" s="19"/>
+      <c r="I279" s="18"/>
     </row>
     <row r="280" spans="1:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="20"/>
+      <c r="A280" s="19"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
-      <c r="D280" s="20"/>
-      <c r="F280" s="21"/>
+      <c r="D280" s="19"/>
+      <c r="F280" s="20"/>
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
-      <c r="I280" s="21"/>
+      <c r="I280" s="20"/>
     </row>
     <row r="281" spans="1:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B281" s="22"/>
-      <c r="C281" s="23"/>
-      <c r="F281" s="24"/>
+      <c r="B281" s="21"/>
+      <c r="C281" s="22"/>
+      <c r="F281" s="23"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
-      <c r="I281" s="24"/>
+      <c r="I281" s="23"/>
       <c r="K281" s="1" t="s">
         <v>7</v>
       </c>
@@ -3545,63 +3553,88 @@
       <c r="G284" s="5"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="289" spans="3:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D289" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="3:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D290" s="5"/>
       <c r="E290" s="6"/>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="3:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D291" s="5"/>
       <c r="E291" s="6"/>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="3:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C292" s="16"/>
+    <row r="292" spans="1:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C292" s="15"/>
       <c r="D292" s="5"/>
       <c r="E292" s="6"/>
       <c r="F292" s="7"/>
-      <c r="G292" s="17"/>
-    </row>
-    <row r="293" spans="3:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C293" s="19"/>
+      <c r="G292" s="16"/>
+    </row>
+    <row r="293" spans="1:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C293" s="18"/>
       <c r="D293" s="10"/>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
-      <c r="G293" s="19"/>
-    </row>
-    <row r="294" spans="3:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C294" s="21"/>
+      <c r="G293" s="18"/>
+    </row>
+    <row r="294" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C294" s="20"/>
       <c r="D294" s="10"/>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
-      <c r="G294" s="21"/>
-    </row>
-    <row r="295" spans="3:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C295" s="24"/>
+      <c r="G294" s="20"/>
+    </row>
+    <row r="295" spans="1:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C295" s="23"/>
       <c r="D295" s="10"/>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
-      <c r="G295" s="24"/>
-    </row>
-    <row r="296" spans="3:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G295" s="23"/>
+    </row>
+    <row r="296" spans="1:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D296" s="5"/>
       <c r="E296" s="6"/>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="3:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D297" s="5"/>
       <c r="E297" s="6"/>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="3:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D298" s="5"/>
       <c r="E298" s="6"/>
       <c r="F298" s="7"/>
+    </row>
+    <row r="302" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/美术文档.xlsx
+++ b/美术文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Traffic-sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8C72F-C182-4501-86AB-0281D90F5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829BAD2E-A6BE-4BF1-80CE-4F73C0C7EDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,22 +40,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>直路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具礼包（统一去除金币奖励），第一个礼包考虑为广告领取，其余考虑为金币购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参考之前项目的就行，除此外添加倒计时和月签进度条和礼包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,18 +247,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明：玩法为简单的3D游戏，但背景和道路都是使用2d图片制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景就是类似动物球那种一张大图，不同皮肤切换不同图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道路逻辑的是同样使用2d图片，程序通过路口+道路拼接成一张图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左上方设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +292,38 @@
   </si>
   <si>
     <t>11.美元宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：玩法为简单的3D游戏，但背景和道路都是使用模型制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路逻辑的是同样使用模型，程序通过路口+道路拼接成一张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试着在胜利页面插入美元领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在考虑是在胜利页面，弹出宝箱，观看广告领取宝箱，弹出美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具礼包（分为去除和不去除金币的），第一个礼包考虑为广告领取，其余考虑为金币购买，和钻石购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论点：胜利页面&amp;&amp;小车模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益1000（安卓）+1000（ios）=2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000*（0.4~0.5）*0.4*7.2= 2304-2880</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2673,6 +2683,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19843</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>575985</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68AA362-F025-2AE6-28D5-1DA9418E6A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19843" y="76328984"/>
+          <a:ext cx="1925361" cy="4276327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535548</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97C1ABA-B07C-0121-ACEA-8847AAEDDBBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024062" y="76299219"/>
+          <a:ext cx="1934533" cy="4296171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>664765</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>188516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587193</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>208359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE00E7A-BB05-1383-A526-24A4E2A08301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4087812" y="76388516"/>
+          <a:ext cx="1976256" cy="4306093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2939,10 +3081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N313"/>
+  <dimension ref="A2:N351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F312" sqref="F312"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G348" sqref="G348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3003,7 +3145,7 @@
     </row>
     <row r="58" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3063,22 +3205,22 @@
     </row>
     <row r="112" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3086,96 +3228,96 @@
     </row>
     <row r="148" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="230" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3613,27 +3755,52 @@
     </row>
     <row r="302" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="1" t="s">
-        <v>64</v>
+    <row r="344" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/美术文档.xlsx
+++ b/美术文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Traffic-sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829BAD2E-A6BE-4BF1-80CE-4F73C0C7EDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203CCEB6-E85C-4ABA-ADB1-2C0F0F69DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,24 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc167053095" localSheetId="0">Sheet1!$A$232</definedName>
-    <definedName name="_Toc167053096" localSheetId="0">Sheet1!$A$233</definedName>
-    <definedName name="_Toc167053097" localSheetId="0">Sheet1!$A$234</definedName>
-    <definedName name="_Toc167053098" localSheetId="0">Sheet1!$A$236</definedName>
-    <definedName name="_Toc167053099" localSheetId="0">Sheet1!$A$239</definedName>
-    <definedName name="_Toc167053100" localSheetId="0">Sheet1!$A$240</definedName>
-    <definedName name="_Toc167053101" localSheetId="0">Sheet1!$A$243</definedName>
-    <definedName name="_Toc167053102" localSheetId="0">Sheet1!$A$245</definedName>
-    <definedName name="_Toc167053103" localSheetId="0">Sheet1!$A$257</definedName>
-    <definedName name="_Toc167053104" localSheetId="0">Sheet1!$A$258</definedName>
-    <definedName name="_Toc167053105" localSheetId="0">Sheet1!$A$259</definedName>
-    <definedName name="_Toc167053106" localSheetId="0">Sheet1!$A$262</definedName>
-    <definedName name="_Toc167053107" localSheetId="0">Sheet1!$A$263</definedName>
-    <definedName name="_Toc167053108" localSheetId="0">Sheet1!$A$265</definedName>
-    <definedName name="_Toc167053109" localSheetId="0">Sheet1!$A$269</definedName>
-    <definedName name="_Toc167053110" localSheetId="0">Sheet1!$A$272</definedName>
-    <definedName name="_Toc167053111" localSheetId="0">Sheet1!$A$275</definedName>
-    <definedName name="_Toc167053112" localSheetId="0">Sheet1!$A$280</definedName>
+    <definedName name="_Toc167053095" localSheetId="0">Sheet1!$A$357</definedName>
+    <definedName name="_Toc167053096" localSheetId="0">Sheet1!$A$358</definedName>
+    <definedName name="_Toc167053097" localSheetId="0">Sheet1!$A$359</definedName>
+    <definedName name="_Toc167053098" localSheetId="0">Sheet1!$A$361</definedName>
+    <definedName name="_Toc167053099" localSheetId="0">Sheet1!$A$364</definedName>
+    <definedName name="_Toc167053100" localSheetId="0">Sheet1!$A$365</definedName>
+    <definedName name="_Toc167053101" localSheetId="0">Sheet1!$A$368</definedName>
+    <definedName name="_Toc167053102" localSheetId="0">Sheet1!$A$370</definedName>
+    <definedName name="_Toc167053103" localSheetId="0">Sheet1!$A$382</definedName>
+    <definedName name="_Toc167053104" localSheetId="0">Sheet1!$A$383</definedName>
+    <definedName name="_Toc167053105" localSheetId="0">Sheet1!$A$384</definedName>
+    <definedName name="_Toc167053106" localSheetId="0">Sheet1!$A$387</definedName>
+    <definedName name="_Toc167053107" localSheetId="0">Sheet1!$A$388</definedName>
+    <definedName name="_Toc167053108" localSheetId="0">Sheet1!$A$390</definedName>
+    <definedName name="_Toc167053109" localSheetId="0">Sheet1!$A$394</definedName>
+    <definedName name="_Toc167053110" localSheetId="0">Sheet1!$A$397</definedName>
+    <definedName name="_Toc167053111" localSheetId="0">Sheet1!$A$400</definedName>
+    <definedName name="_Toc167053112" localSheetId="0">Sheet1!$A$405</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>直路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,22 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">游戏名用Car Out 3D! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页面图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商店页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商店顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝箱的标题拦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,34 +119,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求点 :Logo、进度条、背景人物、背景 （背景等玩法制作完成截图处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顶部常驻美元&amp;金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图标换个美元的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间部分照搬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渐变背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础红点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮需要注意有按下状态，以及hard状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础通用按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,26 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宝箱spine动画（试试能不能同时吧爆炸特效也实现了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个基础的背景动画(背景移动程序实现)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有背景底图+道路线条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具标题栏考虑换个色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考之前项目的就行，除此外添加倒计时和月签进度条和礼包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3- 商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,63 +147,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据coinsort换皮那套改下风格，需要有音效+震动+切换多语言+隐私政策+用户协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.换肤功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顶部3个标签页+SKINS文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有选中，未选中，未解锁，解锁四个状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未选中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买方式为广告或者金币购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮添加广告icon和金币icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.玩法页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背景就是类似动物球那种一张大图，不同皮肤切换不同图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左上方设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部步数，关卡显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下方两按钮</t>
+    <t>说明：玩法为简单的3D游戏，但背景和道路都是使用2d图片制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路逻辑的是同样使用2d图片，程序通过路口+道路拼接成一张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最下方有道路图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,35 +179,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下方有道路图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.网赚功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现页面和大转盘和老虎机（新的翻倍卡之类等公司数据）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.游戏胜利失败页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.通用领奖页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.美元宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：玩法为简单的3D游戏，但背景和道路都是使用模型制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道路逻辑的是同样使用模型，程序通过路口+道路拼接成一张图</t>
+    <t>以及对应上方的紫色和红色两个难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①标题栏背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②商店页背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.Logo游戏名字暂定Car Out 3D！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.背景人物，参考下面并根据本游戏画风出一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.背景道路图，背景等玩法制作完成截图处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间分为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.关卡难度状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.渐变背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.基础红点，动画不会可以程序做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f.按钮需要注意有按下状态，以及hard状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面商店图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.商店顶，分为红白色的顶部和左上角的文字，如果没有合适字体做成图片格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.宝箱可以打开的待机动画状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.背景特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.蓝色背景（展示内容背景）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.紫色的大块背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.绿色通用按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.灰色按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.打开宝箱的spine动画（试试能不能同时吧爆炸特效也实现了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.通用广告Icon，这个也是有动画的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.背景注意拆分，中间道路是会动的，拆成单独的道路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.道具标题栏参考这个颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.图标：金币图标和美元图标、钻石图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.道具礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②第二个档，金币购买，获得道具，没有金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①第一个档的礼包可以获得道具和金币，方式为广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③第三档为钻石购买，获得道具和金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本照搬就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.标题栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.倒计时，时间Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.关闭按钮，通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①可领取但未领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②已领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③未领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.周签到奖励状态，统一边角弧度，程序九宫格拉伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有音效+震动+切换多语言+隐私政策+用户协议，统一风格制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.顶部3个标签页+SKINS文本（如果没法通过字体实现，就用图片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④解锁未购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景就是一张大图，不同皮肤切换不同材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.左上方设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.顶部步数显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①关卡显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②背景底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.下方两按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①按钮背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②图标：飞机和灯泡（提示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③次数用完，按钮变成广告状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下内容，程序可以自己实现，美术需要帮忙参考，若效果不行，则需新出图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,23 +395,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现在考虑是在胜利页面，弹出宝箱，观看广告领取宝箱，弹出美元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具礼包（分为去除和不去除金币的），第一个礼包考虑为广告领取，其余考虑为金币购买，和钻石购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论点：胜利页面&amp;&amp;小车模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益1000（安卓）+1000（ios）=2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000*（0.4~0.5）*0.4*7.2= 2304-2880</t>
+    <t>8.游戏胜利失败页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论点：胜利页面怎么制作&amp;&amp;小车模型改用卡通风还是真实3d效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术出图需要满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.动画一般用Spine实现，不会可以程序搞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.切图得细切，不要有多余空白，出图得有效果图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.最好会上传到github上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.统一画风，程序的策划案是零散的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f. （加钱）美术会的话可以帮忙寻找制作音效。不会也没事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g. 以上内容如果哪一点难做，或者麻烦及时跟程序反应，寻找其他方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.（加钱）项目后期制作关卡的话，美术也可以参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线后数据正常的话发红包😊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目目前预计国庆后上线，美术出图时间大概有2-3个月，预估全职的话大概15天的工作时常，兼职45天左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①选中，需要小车预览图和背景预览图、以及轨迹预览图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②未解锁，中间内容分为小车、背景、轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③解锁未选中，橙色按钮做成通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h.通用==只用出一次图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i.所有内容美术都可以提出意见，修改建议，参与讨论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +494,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +519,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -631,9 +791,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,15 +816,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>69455</xdr:rowOff>
+      <xdr:colOff>49610</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>363853</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>393619</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -693,7 +853,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19844" y="823518"/>
+          <a:off x="49610" y="1676799"/>
           <a:ext cx="2397837" cy="5328045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -705,16 +865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>535782</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>89295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228204</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>178556</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128985</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>506017</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>188478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -737,7 +897,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7381876" y="14853045"/>
+          <a:off x="12451954" y="24467342"/>
           <a:ext cx="3115469" cy="2946761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -749,16 +909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>109139</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>230429</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337344</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>436563</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>2226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -788,7 +948,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4127500" y="14158514"/>
+          <a:off x="8552657" y="23971249"/>
           <a:ext cx="2837656" cy="6312540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -806,14 +966,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>138906</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>69452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>624620</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>164660</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>124973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -849,15 +1009,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>9921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>333931</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:colOff>393462</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>274399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -880,7 +1040,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13950156"/>
+          <a:off x="59531" y="31402734"/>
           <a:ext cx="1018540" cy="542290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -893,15 +1053,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>486172</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>192643</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>20003</xdr:rowOff>
+      <xdr:colOff>242252</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>208519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -924,7 +1084,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1170781" y="15279688"/>
+          <a:off x="1220390" y="31422579"/>
           <a:ext cx="1075690" cy="456565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,14 +1098,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>69453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>385127</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>30718</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>149781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -982,14 +1142,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>69453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>137477</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>30718</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>229156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1024,15 +1184,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69453</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>382587</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>337343</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>228203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323055</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>176768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1063,7 +1223,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5873750" y="5308203"/>
+          <a:off x="11291093" y="6895703"/>
           <a:ext cx="2724150" cy="6060440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1080,103 +1240,103 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>128984</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>86648</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>39686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661C57B7-A620-1A70-6A76-B139AF508DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="128984" y="10844610"/>
+          <a:ext cx="1326883" cy="585389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277812</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>202726</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A653DB-2C2E-2223-8654-26CF994A9953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4385468" y="12580937"/>
+          <a:ext cx="609524" cy="600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>647619</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47589</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661C57B7-A620-1A70-6A76-B139AF508DB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6905625"/>
-          <a:ext cx="647619" cy="285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>188515</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138906</xdr:rowOff>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>113430</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>24531</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A653DB-2C2E-2223-8654-26CF994A9953}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="188515" y="7758906"/>
-          <a:ext cx="609524" cy="600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>448753</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>98333</xdr:rowOff>
+      <xdr:colOff>250316</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1199,7 +1359,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="922734" y="7699375"/>
+          <a:off x="39687" y="12352734"/>
           <a:ext cx="895238" cy="733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1213,14 +1373,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>228202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>119679</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180494</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>61431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1255,16 +1415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>543654</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>40394</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>228203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583342</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1287,7 +1447,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2073672" y="7679531"/>
+          <a:off x="59532" y="14118828"/>
           <a:ext cx="523810" cy="695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1299,16 +1459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>386953</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149963</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152351</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277813</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>231727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1331,7 +1491,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3125391" y="7858125"/>
+          <a:off x="962422" y="14287501"/>
           <a:ext cx="447619" cy="390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1345,14 +1505,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>119064</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>484284</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>137812</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>18750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,14 +1549,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>168671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>385729</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>159117</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>119430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1432,15 +1592,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>29767</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>9920</xdr:rowOff>
+      <xdr:colOff>9922</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>248044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>148472</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>143105</xdr:rowOff>
+      <xdr:colOff>128627</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>182792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,7 +1623,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29767" y="17869295"/>
+          <a:off x="9922" y="28862732"/>
           <a:ext cx="2857143" cy="1323810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1476,15 +1636,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>128985</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>228203</xdr:rowOff>
+      <xdr:colOff>148829</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>236141</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>178673</xdr:rowOff>
+      <xdr:colOff>255985</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>59610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1514,7 +1674,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="128985" y="21421328"/>
+          <a:off x="148829" y="34002265"/>
           <a:ext cx="1476375" cy="3284220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1531,59 +1691,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>109140</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>246617</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>953</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="图片 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D100599-96A1-4081-9B5F-FAC56EB8BEF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="109140" y="25757188"/>
-          <a:ext cx="2875915" cy="437515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>188516</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>99218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>21507</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>232373</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>267890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>517601</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>162920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1606,7 +1722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="188516" y="27007343"/>
+          <a:off x="0" y="41384140"/>
           <a:ext cx="2571429" cy="1561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1619,15 +1735,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>69453</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>217487</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>171053</xdr:rowOff>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525065</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>91678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1657,7 +1773,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6717109" y="28882578"/>
+          <a:off x="6340078" y="45591016"/>
           <a:ext cx="2400300" cy="5340350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1674,15 +1790,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>69453</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>168672</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>59533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>386715</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>158512</xdr:rowOff>
+      <xdr:colOff>317262</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>208123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1705,7 +1821,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="69453" y="29934297"/>
+          <a:off x="0" y="47565471"/>
           <a:ext cx="2371090" cy="704215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1719,14 +1835,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>128984</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>262175</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>668097</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1756,8 +1872,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="128984" y="35877500"/>
-          <a:ext cx="1502410" cy="3343275"/>
+          <a:off x="128984" y="57665938"/>
+          <a:ext cx="1908332" cy="4246562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,16 +1888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>168672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9922</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>189940</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>506017</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361075</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>208359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,8 +1927,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3294063" y="35887422"/>
-          <a:ext cx="1508125" cy="3355018"/>
+          <a:off x="3929064" y="57636172"/>
+          <a:ext cx="1908886" cy="4246562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,15 +1944,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>307579</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>138906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>443310</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>152876</xdr:rowOff>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501114</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1866,8 +1982,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1676798" y="35857656"/>
-          <a:ext cx="1504950" cy="3347720"/>
+          <a:off x="2024062" y="57626249"/>
+          <a:ext cx="1900099" cy="4226719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1882,16 +1998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39686</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>625078</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>218281</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>426182</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>46763</xdr:rowOff>
+      <xdr:colOff>466329</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>170425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1914,8 +2030,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1309687" y="40699531"/>
-          <a:ext cx="485714" cy="542857"/>
+          <a:off x="39686" y="64492187"/>
+          <a:ext cx="1111252" cy="1241988"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,191 +2043,191 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>69454</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>49611</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>19843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396876</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>124730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B857260-836A-F018-8AB2-BE9D5F36A0DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49611" y="62527656"/>
+          <a:ext cx="1031874" cy="1216137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>602787</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>72945</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="图片 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B857260-836A-F018-8AB2-BE9D5F36A0DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="69454" y="40639999"/>
-          <a:ext cx="533333" cy="628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:colOff>208357</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>585390</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>242097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3897F3-C054-5BED-C20F-65F6743D7702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="208357" y="66476562"/>
+          <a:ext cx="1061642" cy="1273973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79372</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>89294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>122182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="图片 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA7A786-224E-BEAB-BCD4-3BA402166455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79372" y="68431169"/>
+          <a:ext cx="1081485" cy="1421951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595314</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>19843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230786</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>218280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343965DD-8B98-F1C0-979E-DD010B7A4704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1279923" y="64472343"/>
+          <a:ext cx="1004691" cy="1309687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426642</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>69452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>168671</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>208360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644861</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>65414</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="图片 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3897F3-C054-5BED-C20F-65F6743D7702}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3591718" y="40689610"/>
-          <a:ext cx="476190" cy="571429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406796</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236473</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>120564</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="图片 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA7A786-224E-BEAB-BCD4-3BA402166455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5199062" y="40639999"/>
-          <a:ext cx="514286" cy="676190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>436564</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>89298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285288</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>70161</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="图片 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343965DD-8B98-F1C0-979E-DD010B7A4704}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1805783" y="40570548"/>
-          <a:ext cx="533333" cy="695238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>307579</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>208360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>70588</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>227348</xdr:rowOff>
+      <xdr:colOff>124597</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>138905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2134,8 +2250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2361407" y="40689610"/>
-          <a:ext cx="447619" cy="495238"/>
+          <a:off x="2480470" y="64521952"/>
+          <a:ext cx="1067174" cy="1180703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,15 +2263,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>654844</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>138907</xdr:rowOff>
+      <xdr:colOff>426641</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>19844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>105878</xdr:rowOff>
+      <xdr:colOff>456406</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>66190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2185,7 +2301,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7500938" y="42048907"/>
+          <a:off x="7272735" y="71417657"/>
           <a:ext cx="2768202" cy="6158221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2203,14 +2319,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>69453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>287307</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>145614</xdr:rowOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>105926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2246,59 +2362,59 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:colOff>9921</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>306264</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>95974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="图片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41881599-44D1-5612-0C3E-3F17D12E7CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9921" y="75386406"/>
+          <a:ext cx="980952" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>277810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>585394</xdr:colOff>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>296343</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>76131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="图片 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41881599-44D1-5612-0C3E-3F17D12E7CEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="45720000"/>
-          <a:ext cx="980952" cy="552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>261830</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>122187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2321,8 +2437,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="89296" y="46870937"/>
-          <a:ext cx="857143" cy="400000"/>
+          <a:off x="79374" y="77787498"/>
+          <a:ext cx="1190629" cy="555627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2335,14 +2451,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>188516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>205792</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>112266</xdr:rowOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>32891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,14 +2495,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>426640</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>103936</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>126168</xdr:rowOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>86480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2423,14 +2539,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>49609</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>198438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>430561</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>112664</xdr:rowOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>33289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2467,13 +2583,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>184626</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2522,14 +2638,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>9922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>469741</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>397</xdr:rowOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>238522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2577,14 +2693,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>515937</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>212804</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2631,15 +2747,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>267891</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>218281</xdr:rowOff>
+      <xdr:colOff>297657</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>24448</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>199231</xdr:rowOff>
+      <xdr:colOff>54214</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>248840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2669,7 +2785,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5060157" y="49272031"/>
+          <a:off x="5089923" y="80952578"/>
           <a:ext cx="1810385" cy="4029075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2685,39 +2801,834 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>535779</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>658149</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8788C2C4-4949-EE13-5375-D19FF0CC557A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3274217" y="12263438"/>
+          <a:ext cx="806979" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>228202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494992</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F7F414-520D-5880-79F0-21B3A5F73E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2172890" y="12174140"/>
+          <a:ext cx="1060540" cy="1031876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>615156</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>34932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579F6725-0348-7F23-5F1B-E4663036A76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1101328" y="12303126"/>
+          <a:ext cx="883047" cy="788994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128984</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>264969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98681489-7F87-685D-2AC8-3C805F9A21EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2053828" y="13215937"/>
+          <a:ext cx="1498203" cy="979345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>128986</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>248047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358663</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>81276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5746DCC1-0124-7A39-06A1-D28F2AE939C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1498205" y="10804922"/>
+          <a:ext cx="914286" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545703</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>257968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>680142</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>111867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F16F66-E1EB-E392-3ED2-057F7D23275E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3284141" y="24427656"/>
+          <a:ext cx="819048" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>545702</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>565855</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>224393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FDD131-A85B-52FE-34A4-837576376221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391796" y="32930703"/>
+          <a:ext cx="704762" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242514</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>104702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78232FB4-FE80-C2AA-CF69-59FDD1B83DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39250938"/>
+          <a:ext cx="2980952" cy="580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29766</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>267890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515938</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>164236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18687C05-EE53-37ED-1CB6-A189AFBCF8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2768204" y="41384140"/>
+          <a:ext cx="2540000" cy="2674471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486173</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565546</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>261936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0840DD0E-DA98-F35D-589A-92D459B8630A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540001" y="10735469"/>
+          <a:ext cx="763983" cy="916780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>109141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121183</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>115421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAFCDB5-8052-24D4-3035-462716056907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89297" y="45670391"/>
+          <a:ext cx="2085714" cy="561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>19843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390626</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>188515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F3EBA6-655F-A019-BC21-15B34D00F4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79374" y="46692343"/>
+          <a:ext cx="2365080" cy="446485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>453988</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>18620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E682AF-214B-437B-3EB7-BD4AC1F96E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158750" y="48646953"/>
+          <a:ext cx="295238" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9922</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1503</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>218988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC13297B-F274-6046-87F4-26B2E7EE00B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9922" y="49807813"/>
+          <a:ext cx="676190" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128985</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168186</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>244374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253F4816-503A-0575-995C-B351D193E42D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="128985" y="50839687"/>
+          <a:ext cx="723810" cy="800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89296</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>257969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>109449</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>157864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9836E12F-F778-39C8-621B-11632E16DC5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89296" y="51931094"/>
+          <a:ext cx="704762" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521383</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61F08CD-49A6-62E1-E922-4CAC0DA524DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39688" y="53449140"/>
+          <a:ext cx="2535523" cy="3264297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>287733</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222172</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>245997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA82F7A9-A090-02B3-1249-ED8555EE904A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1656952" y="77787500"/>
+          <a:ext cx="619048" cy="523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>267890</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>69452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139423</xdr:colOff>
       <xdr:row>320</xdr:row>
-      <xdr:rowOff>128984</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>575985</xdr:colOff>
-      <xdr:row>338</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68AA362-F025-2AE6-28D5-1DA9418E6A66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19843" y="76328984"/>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5C3D67-74ED-4BC4-83FD-1E74D32D53FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="267890" y="80912890"/>
           <a:ext cx="1925361" cy="4276327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2729,39 +3640,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>654843</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>248046</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>49608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128751</xdr:colOff>
       <xdr:row>320</xdr:row>
-      <xdr:rowOff>99219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>535548</xdr:colOff>
-      <xdr:row>338</xdr:row>
-      <xdr:rowOff>109140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97C1ABA-B07C-0121-ACEA-8847AAEDDBBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2024062" y="76299219"/>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB15C09-0221-44E7-A1B3-43D4BFAAEF3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2301874" y="80893046"/>
           <a:ext cx="1934533" cy="4296171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2773,39 +3684,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>664765</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160553</xdr:colOff>
       <xdr:row>320</xdr:row>
-      <xdr:rowOff>188516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>587193</xdr:colOff>
-      <xdr:row>338</xdr:row>
-      <xdr:rowOff>208359</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE00E7A-BB05-1383-A526-24A4E2A08301}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4087812" y="76388516"/>
+      <xdr:rowOff>198436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF65008-EE79-4846-902B-1E3C4F4A75BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345781" y="80902968"/>
           <a:ext cx="1976256" cy="4306093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3081,727 +3992,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N351"/>
+  <dimension ref="A1:N423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G348" sqref="G348"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="17" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G88" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+    <row r="101" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
+    <row r="109" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="24"/>
-    </row>
-    <row r="148" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" s="26" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="355" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="H355" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="2"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="4"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="6"/>
-      <c r="J232" s="7"/>
-    </row>
-    <row r="233" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="2"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="4"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="6"/>
-      <c r="J233" s="7"/>
-    </row>
-    <row r="234" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="2"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="4"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="6"/>
-      <c r="J234" s="7"/>
-    </row>
-    <row r="235" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="2"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="4"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="6"/>
-      <c r="J235" s="7"/>
-    </row>
-    <row r="236" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="2"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="4"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="6"/>
-      <c r="J236" s="7"/>
-    </row>
-    <row r="237" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="2"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="4"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="6"/>
-      <c r="J237" s="7"/>
-    </row>
-    <row r="238" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="2"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="4"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="6"/>
-      <c r="J238" s="7"/>
-    </row>
-    <row r="239" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="2"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="4"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="6"/>
-      <c r="J239" s="7"/>
-    </row>
-    <row r="240" spans="2:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="2"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="4"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="6"/>
-      <c r="J240" s="7"/>
-    </row>
-    <row r="245" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="1" t="s">
+    <row r="357" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B357" s="2"/>
+      <c r="E357" s="3"/>
+      <c r="F357" s="4"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="6"/>
+      <c r="J357" s="7"/>
+    </row>
+    <row r="358" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B358" s="2"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="4"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="6"/>
+      <c r="J358" s="7"/>
+    </row>
+    <row r="359" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B359" s="2"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="4"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="6"/>
+      <c r="J359" s="7"/>
+    </row>
+    <row r="360" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B360" s="2"/>
+      <c r="E360" s="3"/>
+      <c r="F360" s="4"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="6"/>
+      <c r="J360" s="7"/>
+    </row>
+    <row r="361" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B361" s="2"/>
+      <c r="E361" s="3"/>
+      <c r="F361" s="4"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="6"/>
+      <c r="J361" s="7"/>
+    </row>
+    <row r="362" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B362" s="2"/>
+      <c r="E362" s="3"/>
+      <c r="F362" s="4"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="6"/>
+      <c r="J362" s="7"/>
+    </row>
+    <row r="363" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B363" s="2"/>
+      <c r="E363" s="3"/>
+      <c r="F363" s="4"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="6"/>
+      <c r="J363" s="7"/>
+    </row>
+    <row r="364" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B364" s="2"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="4"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="6"/>
+      <c r="J364" s="7"/>
+    </row>
+    <row r="365" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B365" s="2"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="4"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="6"/>
+      <c r="J365" s="7"/>
+    </row>
+    <row r="370" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B370" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B246" s="1" t="s">
+    <row r="371" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B371" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-      <c r="H247" s="8"/>
-      <c r="J247" s="8"/>
-      <c r="K247" s="8"/>
-      <c r="L247" s="8"/>
-      <c r="M247" s="8"/>
-      <c r="N247" s="8"/>
-    </row>
-    <row r="248" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="9"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="9"/>
-      <c r="E248" s="9"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="9"/>
-      <c r="J248" s="9"/>
-      <c r="K248" s="10"/>
-      <c r="L248" s="10"/>
-      <c r="M248" s="10"/>
-      <c r="N248" s="9"/>
-    </row>
-    <row r="249" spans="1:14" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="2" t="s">
+    <row r="372" spans="1:14" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="8"/>
+      <c r="B372" s="8"/>
+      <c r="C372" s="8"/>
+      <c r="E372" s="8"/>
+      <c r="F372" s="8"/>
+      <c r="G372" s="8"/>
+      <c r="H372" s="8"/>
+      <c r="J372" s="8"/>
+      <c r="K372" s="8"/>
+      <c r="L372" s="8"/>
+      <c r="M372" s="8"/>
+      <c r="N372" s="8"/>
+    </row>
+    <row r="373" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A373" s="9"/>
+      <c r="B373" s="10"/>
+      <c r="C373" s="9"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="10"/>
+      <c r="G373" s="10"/>
+      <c r="H373" s="9"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="10"/>
+      <c r="L373" s="10"/>
+      <c r="M373" s="10"/>
+      <c r="N373" s="9"/>
+    </row>
+    <row r="374" spans="1:14" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B374" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F249" s="3"/>
-      <c r="G249" s="4"/>
-      <c r="K249" s="5"/>
-      <c r="L249" s="6"/>
-      <c r="M249" s="7"/>
-    </row>
-    <row r="250" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="2"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="4"/>
-      <c r="K250" s="5"/>
-      <c r="L250" s="6"/>
-      <c r="M250" s="7"/>
-    </row>
-    <row r="251" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="2"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="4"/>
-      <c r="K251" s="5"/>
-      <c r="L251" s="6"/>
-      <c r="M251" s="7"/>
-    </row>
-    <row r="252" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="2"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="4"/>
-      <c r="K252" s="5"/>
-      <c r="L252" s="6"/>
-      <c r="M252" s="7"/>
-    </row>
-    <row r="253" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="2"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="4"/>
-      <c r="K253" s="5"/>
-      <c r="L253" s="6"/>
-      <c r="M253" s="7"/>
-    </row>
-    <row r="254" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="2"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="4"/>
-      <c r="K254" s="5"/>
-      <c r="L254" s="6"/>
-      <c r="M254" s="7"/>
-    </row>
-    <row r="255" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="2"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="4"/>
-      <c r="K255" s="5"/>
-      <c r="L255" s="6"/>
-      <c r="M255" s="7"/>
-    </row>
-    <row r="256" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="2"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="4"/>
-      <c r="K256" s="5"/>
-      <c r="L256" s="6"/>
-      <c r="M256" s="7"/>
-    </row>
-    <row r="257" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="2"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="4"/>
-      <c r="K257" s="5"/>
-      <c r="L257" s="6"/>
-      <c r="M257" s="7"/>
-    </row>
-    <row r="262" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="1" t="s">
+      <c r="F374" s="3"/>
+      <c r="G374" s="4"/>
+      <c r="K374" s="5"/>
+      <c r="L374" s="6"/>
+      <c r="M374" s="7"/>
+    </row>
+    <row r="375" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B375" s="2"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="4"/>
+      <c r="K375" s="5"/>
+      <c r="L375" s="6"/>
+      <c r="M375" s="7"/>
+    </row>
+    <row r="376" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B376" s="2"/>
+      <c r="F376" s="3"/>
+      <c r="G376" s="4"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="6"/>
+      <c r="M376" s="7"/>
+    </row>
+    <row r="377" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="2"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="4"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="6"/>
+      <c r="M377" s="7"/>
+    </row>
+    <row r="378" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B378" s="2"/>
+      <c r="F378" s="3"/>
+      <c r="G378" s="4"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="6"/>
+      <c r="M378" s="7"/>
+    </row>
+    <row r="379" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B379" s="2"/>
+      <c r="F379" s="3"/>
+      <c r="G379" s="4"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="6"/>
+      <c r="M379" s="7"/>
+    </row>
+    <row r="380" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B380" s="2"/>
+      <c r="F380" s="3"/>
+      <c r="G380" s="4"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="6"/>
+      <c r="M380" s="7"/>
+    </row>
+    <row r="381" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B381" s="2"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="4"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="6"/>
+      <c r="M381" s="7"/>
+    </row>
+    <row r="382" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B382" s="2"/>
+      <c r="F382" s="3"/>
+      <c r="G382" s="4"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="6"/>
+      <c r="M382" s="7"/>
+    </row>
+    <row r="387" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B387" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F262" s="1" t="s">
+      <c r="F387" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K262" s="1" t="s">
+      <c r="K387" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="11"/>
-      <c r="F263" s="3"/>
-      <c r="G263" s="4"/>
-      <c r="K263" s="5"/>
-      <c r="L263" s="6"/>
-      <c r="M263" s="7"/>
-    </row>
-    <row r="264" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="11"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="4"/>
-      <c r="K264" s="5"/>
-      <c r="L264" s="6"/>
-      <c r="M264" s="7"/>
-    </row>
-    <row r="265" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="11"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="4"/>
-      <c r="K265" s="5"/>
-      <c r="L265" s="6"/>
-      <c r="M265" s="7"/>
-    </row>
-    <row r="266" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B266" s="11"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="4"/>
-      <c r="K266" s="5"/>
-      <c r="L266" s="6"/>
-      <c r="M266" s="7"/>
-    </row>
-    <row r="267" spans="1:14" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="12"/>
-      <c r="B267" s="10"/>
-      <c r="C267" s="12"/>
-      <c r="E267" s="12"/>
-      <c r="F267" s="10" t="s">
+    <row r="388" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B388" s="11"/>
+      <c r="F388" s="3"/>
+      <c r="G388" s="4"/>
+      <c r="K388" s="5"/>
+      <c r="L388" s="6"/>
+      <c r="M388" s="7"/>
+    </row>
+    <row r="389" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B389" s="11"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="4"/>
+      <c r="K389" s="5"/>
+      <c r="L389" s="6"/>
+      <c r="M389" s="7"/>
+    </row>
+    <row r="390" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B390" s="11"/>
+      <c r="F390" s="3"/>
+      <c r="G390" s="4"/>
+      <c r="K390" s="5"/>
+      <c r="L390" s="6"/>
+      <c r="M390" s="7"/>
+    </row>
+    <row r="391" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B391" s="11"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="4"/>
+      <c r="K391" s="5"/>
+      <c r="L391" s="6"/>
+      <c r="M391" s="7"/>
+    </row>
+    <row r="392" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A392" s="12"/>
+      <c r="B392" s="10"/>
+      <c r="C392" s="12"/>
+      <c r="E392" s="12"/>
+      <c r="F392" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G267" s="10"/>
-      <c r="H267" s="12"/>
-      <c r="J267" s="12"/>
-      <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="12" t="s">
+      <c r="G392" s="10"/>
+      <c r="H392" s="12"/>
+      <c r="J392" s="12"/>
+      <c r="K392" s="10"/>
+      <c r="L392" s="10"/>
+      <c r="M392" s="10"/>
+      <c r="N392" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="11"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="4"/>
-      <c r="K268" s="5"/>
-      <c r="L268" s="6"/>
-      <c r="M268" s="7"/>
-    </row>
-    <row r="269" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="11"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="4"/>
-      <c r="K269" s="5"/>
-      <c r="L269" s="6"/>
-      <c r="M269" s="7"/>
-    </row>
-    <row r="270" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="11"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="4"/>
-      <c r="K270" s="5"/>
-      <c r="L270" s="6"/>
-      <c r="M270" s="7"/>
-    </row>
-    <row r="271" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="11"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="4"/>
-      <c r="K271" s="5"/>
-      <c r="L271" s="6"/>
-      <c r="M271" s="7"/>
-    </row>
-    <row r="272" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="1" t="s">
+    <row r="393" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B393" s="11"/>
+      <c r="F393" s="3"/>
+      <c r="G393" s="4"/>
+      <c r="K393" s="5"/>
+      <c r="L393" s="6"/>
+      <c r="M393" s="7"/>
+    </row>
+    <row r="394" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B394" s="11"/>
+      <c r="F394" s="3"/>
+      <c r="G394" s="4"/>
+      <c r="K394" s="5"/>
+      <c r="L394" s="6"/>
+      <c r="M394" s="7"/>
+    </row>
+    <row r="395" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B395" s="11"/>
+      <c r="F395" s="3"/>
+      <c r="G395" s="4"/>
+      <c r="K395" s="5"/>
+      <c r="L395" s="6"/>
+      <c r="M395" s="7"/>
+    </row>
+    <row r="396" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B396" s="11"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="4"/>
+      <c r="K396" s="5"/>
+      <c r="L396" s="6"/>
+      <c r="M396" s="7"/>
+    </row>
+    <row r="397" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B397" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="1" t="s">
+    <row r="400" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B400" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F275" s="1" t="s">
+      <c r="F400" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="3"/>
-      <c r="C276" s="4"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="7"/>
-    </row>
-    <row r="277" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="3"/>
-      <c r="C277" s="4"/>
-      <c r="G277" s="5"/>
-      <c r="H277" s="7"/>
-    </row>
-    <row r="278" spans="1:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="13"/>
-      <c r="B278" s="3"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="14"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="5"/>
-      <c r="H278" s="7"/>
-      <c r="I278" s="16"/>
-    </row>
-    <row r="279" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="17"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="17"/>
-      <c r="F279" s="18"/>
-      <c r="G279" s="10"/>
-      <c r="H279" s="10"/>
-      <c r="I279" s="18"/>
-    </row>
-    <row r="280" spans="1:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="19"/>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="19"/>
-      <c r="F280" s="20"/>
-      <c r="G280" s="10"/>
-      <c r="H280" s="10"/>
-      <c r="I280" s="20"/>
-    </row>
-    <row r="281" spans="1:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B281" s="21"/>
-      <c r="C281" s="22"/>
-      <c r="F281" s="23"/>
-      <c r="G281" s="10"/>
-      <c r="H281" s="10"/>
-      <c r="I281" s="23"/>
-      <c r="K281" s="1" t="s">
+    <row r="401" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B401" s="3"/>
+      <c r="C401" s="4"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="7"/>
+    </row>
+    <row r="402" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B402" s="3"/>
+      <c r="C402" s="4"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="7"/>
+    </row>
+    <row r="403" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A403" s="13"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="14"/>
+      <c r="F403" s="15"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="7"/>
+      <c r="I403" s="16"/>
+    </row>
+    <row r="404" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="17"/>
+      <c r="B404" s="10"/>
+      <c r="C404" s="10"/>
+      <c r="D404" s="17"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="10"/>
+      <c r="H404" s="10"/>
+      <c r="I404" s="18"/>
+    </row>
+    <row r="405" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A405" s="19"/>
+      <c r="B405" s="10"/>
+      <c r="C405" s="10"/>
+      <c r="D405" s="19"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="10"/>
+      <c r="H405" s="10"/>
+      <c r="I405" s="20"/>
+    </row>
+    <row r="406" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B406" s="21"/>
+      <c r="C406" s="22"/>
+      <c r="F406" s="23"/>
+      <c r="G406" s="10"/>
+      <c r="H406" s="10"/>
+      <c r="I406" s="23"/>
+      <c r="K406" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="3"/>
-      <c r="C282" s="4"/>
-      <c r="G282" s="5"/>
-      <c r="H282" s="7"/>
-    </row>
-    <row r="283" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="3"/>
-      <c r="C283" s="4"/>
-      <c r="G283" s="5"/>
-      <c r="H283" s="7"/>
-    </row>
-    <row r="284" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="3"/>
-      <c r="C284" s="4"/>
-      <c r="G284" s="5"/>
-      <c r="H284" s="7"/>
-    </row>
-    <row r="289" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D289" s="1" t="s">
+    <row r="407" spans="1:11" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B407" s="3"/>
+      <c r="C407" s="4"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="7"/>
+    </row>
+    <row r="408" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B408" s="3"/>
+      <c r="C408" s="4"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="7"/>
+    </row>
+    <row r="409" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B409" s="3"/>
+      <c r="C409" s="4"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="7"/>
+    </row>
+    <row r="414" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D414" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D290" s="5"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="7"/>
-    </row>
-    <row r="291" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D291" s="5"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="7"/>
-    </row>
-    <row r="292" spans="1:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C292" s="15"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="7"/>
-      <c r="G292" s="16"/>
-    </row>
-    <row r="293" spans="1:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C293" s="18"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="18"/>
-    </row>
-    <row r="294" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C294" s="20"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="20"/>
-    </row>
-    <row r="295" spans="1:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C295" s="23"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="23"/>
-    </row>
-    <row r="296" spans="1:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D296" s="5"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="7"/>
-    </row>
-    <row r="297" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D297" s="5"/>
-      <c r="E297" s="6"/>
-      <c r="F297" s="7"/>
-    </row>
-    <row r="298" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D298" s="5"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="7"/>
-    </row>
-    <row r="302" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="415" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D415" s="5"/>
+      <c r="E415" s="6"/>
+      <c r="F415" s="7"/>
+    </row>
+    <row r="416" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D416" s="5"/>
+      <c r="E416" s="6"/>
+      <c r="F416" s="7"/>
+    </row>
+    <row r="417" spans="3:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C417" s="15"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="6"/>
+      <c r="F417" s="7"/>
+      <c r="G417" s="16"/>
+    </row>
+    <row r="418" spans="3:7" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C418" s="18"/>
+      <c r="D418" s="10"/>
+      <c r="E418" s="10"/>
+      <c r="F418" s="10"/>
+      <c r="G418" s="18"/>
+    </row>
+    <row r="419" spans="3:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C419" s="20"/>
+      <c r="D419" s="10"/>
+      <c r="E419" s="10"/>
+      <c r="F419" s="10"/>
+      <c r="G419" s="20"/>
+    </row>
+    <row r="420" spans="3:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C420" s="23"/>
+      <c r="D420" s="10"/>
+      <c r="E420" s="10"/>
+      <c r="F420" s="10"/>
+      <c r="G420" s="23"/>
+    </row>
+    <row r="421" spans="3:7" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D421" s="5"/>
+      <c r="E421" s="6"/>
+      <c r="F421" s="7"/>
+    </row>
+    <row r="422" spans="3:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D422" s="5"/>
+      <c r="E422" s="6"/>
+      <c r="F422" s="7"/>
+    </row>
+    <row r="423" spans="3:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D423" s="5"/>
+      <c r="E423" s="6"/>
+      <c r="F423" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
